--- a/Модуль 6. Таблицы тест кейсов(блок видеозаписей).xlsx
+++ b/Модуль 6. Таблицы тест кейсов(блок видеозаписей).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t>passed</t>
   </si>
@@ -1494,10 +1494,10 @@
   <dimension ref="A1:Z89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="16980" ySplit="1920" topLeftCell="K53" activePane="bottomLeft"/>
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <pane xSplit="16980" ySplit="1785" topLeftCell="J47"/>
+      <selection activeCell="L59" sqref="L59"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
       <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1512,7 +1512,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
@@ -1571,7 +1571,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="8.25" customHeight="1">
+    <row r="2" spans="1:26" ht="45" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1587,7 +1587,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$70,"passed")</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1712,7 +1712,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" hidden="1" customHeight="1">
+    <row r="6" spans="1:26" ht="52.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -2991,7 +2991,9 @@
     </row>
     <row r="38" spans="1:26" ht="135">
       <c r="A38" s="12"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>31</v>
+      </c>
       <c r="C38" s="33"/>
       <c r="D38" s="3" t="s">
         <v>123</v>
@@ -3023,7 +3025,9 @@
     </row>
     <row r="39" spans="1:26" ht="135">
       <c r="A39" s="12"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
       <c r="C39" s="33"/>
       <c r="D39" s="3" t="s">
         <v>124</v>
@@ -3057,7 +3061,9 @@
     </row>
     <row r="40" spans="1:26" ht="120">
       <c r="A40" s="12"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
       <c r="C40" s="33"/>
       <c r="D40" s="3" t="s">
         <v>125</v>
@@ -3091,7 +3097,9 @@
     </row>
     <row r="41" spans="1:26" ht="120">
       <c r="A41" s="12"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>34</v>
+      </c>
       <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="7" t="s">
@@ -3123,7 +3131,9 @@
     </row>
     <row r="42" spans="1:26" ht="105">
       <c r="A42" s="12"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
       <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>108</v>
@@ -3157,7 +3167,9 @@
     </row>
     <row r="43" spans="1:26" ht="105">
       <c r="A43" s="12"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>36</v>
+      </c>
       <c r="C43" s="33"/>
       <c r="D43" s="3" t="s">
         <v>109</v>
@@ -3191,7 +3203,9 @@
     </row>
     <row r="44" spans="1:26" ht="120">
       <c r="A44" s="12"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
       <c r="C44" s="33"/>
       <c r="D44" s="3"/>
       <c r="E44" s="7" t="s">
@@ -3223,7 +3237,9 @@
     </row>
     <row r="45" spans="1:26" ht="120">
       <c r="A45" s="12"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
       <c r="C45" s="33"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7" t="s">
@@ -3255,7 +3271,9 @@
     </row>
     <row r="46" spans="1:26" ht="120">
       <c r="A46" s="12"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3">
+        <v>39</v>
+      </c>
       <c r="C46" s="33"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7" t="s">
@@ -3287,7 +3305,9 @@
     </row>
     <row r="47" spans="1:26" ht="120">
       <c r="A47" s="12"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3">
+        <v>40</v>
+      </c>
       <c r="C47" s="33"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7" t="s">
@@ -3319,7 +3339,9 @@
     </row>
     <row r="48" spans="1:26" ht="45">
       <c r="A48" s="12"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
       <c r="C48" s="33" t="s">
         <v>127</v>
       </c>
@@ -3337,7 +3359,9 @@
       <c r="I48" s="21"/>
       <c r="J48" s="20"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M48" s="11"/>
       <c r="N48" s="6"/>
       <c r="O48" s="11"/>
@@ -3355,7 +3379,9 @@
     </row>
     <row r="49" spans="1:26" ht="60">
       <c r="A49" s="12"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3">
+        <v>42</v>
+      </c>
       <c r="C49" s="33"/>
       <c r="D49" s="3" t="s">
         <v>129</v>
@@ -3371,7 +3397,9 @@
       <c r="I49" s="21"/>
       <c r="J49" s="20"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M49" s="11"/>
       <c r="N49" s="6"/>
       <c r="O49" s="11"/>
@@ -3389,7 +3417,9 @@
     </row>
     <row r="50" spans="1:26" ht="45">
       <c r="A50" s="12"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3">
+        <v>43</v>
+      </c>
       <c r="C50" s="33"/>
       <c r="D50" s="3" t="s">
         <v>130</v>
@@ -3405,7 +3435,9 @@
       <c r="I50" s="21"/>
       <c r="J50" s="20"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M50" s="11"/>
       <c r="N50" s="6"/>
       <c r="O50" s="11"/>
@@ -3423,7 +3455,9 @@
     </row>
     <row r="51" spans="1:26" ht="60">
       <c r="A51" s="12"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3">
+        <v>44</v>
+      </c>
       <c r="C51" s="33"/>
       <c r="D51" s="3" t="s">
         <v>131</v>
@@ -3439,7 +3473,9 @@
       <c r="I51" s="21"/>
       <c r="J51" s="20"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M51" s="11"/>
       <c r="N51" s="6"/>
       <c r="O51" s="11"/>
@@ -3457,7 +3493,9 @@
     </row>
     <row r="52" spans="1:26" ht="45">
       <c r="A52" s="12"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <v>45</v>
+      </c>
       <c r="C52" s="33"/>
       <c r="D52" s="3" t="s">
         <v>132</v>
@@ -3473,7 +3511,9 @@
       <c r="I52" s="21"/>
       <c r="J52" s="20"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M52" s="11"/>
       <c r="N52" s="6"/>
       <c r="O52" s="11"/>
@@ -3491,7 +3531,9 @@
     </row>
     <row r="53" spans="1:26" ht="60">
       <c r="A53" s="12"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3">
+        <v>46</v>
+      </c>
       <c r="C53" s="33"/>
       <c r="D53" s="3" t="s">
         <v>133</v>
@@ -3507,7 +3549,9 @@
       <c r="I53" s="21"/>
       <c r="J53" s="20"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M53" s="11"/>
       <c r="N53" s="6"/>
       <c r="O53" s="11"/>
@@ -3525,7 +3569,9 @@
     </row>
     <row r="54" spans="1:26" ht="60">
       <c r="A54" s="12"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3">
+        <v>47</v>
+      </c>
       <c r="C54" s="33"/>
       <c r="D54" s="3" t="s">
         <v>134</v>
@@ -3541,7 +3587,9 @@
       <c r="I54" s="21"/>
       <c r="J54" s="20"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M54" s="11"/>
       <c r="N54" s="6"/>
       <c r="O54" s="11"/>
@@ -3559,7 +3607,9 @@
     </row>
     <row r="55" spans="1:26" ht="60">
       <c r="A55" s="12"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>48</v>
+      </c>
       <c r="C55" s="33"/>
       <c r="D55" s="3" t="s">
         <v>135</v>
@@ -3575,7 +3625,9 @@
       <c r="I55" s="21"/>
       <c r="J55" s="20"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="6"/>
+      <c r="L55" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M55" s="11"/>
       <c r="N55" s="6"/>
       <c r="O55" s="11"/>
@@ -3593,7 +3645,9 @@
     </row>
     <row r="56" spans="1:26" ht="105">
       <c r="A56" s="12"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3">
+        <v>49</v>
+      </c>
       <c r="C56" s="33"/>
       <c r="D56" s="3" t="s">
         <v>136</v>
@@ -3609,7 +3663,9 @@
       <c r="I56" s="21"/>
       <c r="J56" s="20"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="6"/>
+      <c r="L56" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M56" s="11"/>
       <c r="N56" s="6"/>
       <c r="O56" s="11"/>
@@ -3627,7 +3683,9 @@
     </row>
     <row r="57" spans="1:26" ht="75">
       <c r="A57" s="12"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3">
+        <v>50</v>
+      </c>
       <c r="C57" s="33"/>
       <c r="D57" s="3" t="s">
         <v>137</v>
@@ -3643,7 +3701,9 @@
       <c r="I57" s="21"/>
       <c r="J57" s="20"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="6"/>
+      <c r="L57" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M57" s="11"/>
       <c r="N57" s="6"/>
       <c r="O57" s="11"/>
@@ -3661,7 +3721,9 @@
     </row>
     <row r="58" spans="1:26" ht="75">
       <c r="A58" s="12"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3">
+        <v>51</v>
+      </c>
       <c r="C58" s="33"/>
       <c r="D58" s="3" t="s">
         <v>138</v>
@@ -3677,7 +3739,9 @@
       <c r="I58" s="21"/>
       <c r="J58" s="20"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="6"/>
+      <c r="L58" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M58" s="11"/>
       <c r="N58" s="6"/>
       <c r="O58" s="11"/>
@@ -3695,7 +3759,9 @@
     </row>
     <row r="59" spans="1:26" ht="75">
       <c r="A59" s="12"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3">
+        <v>52</v>
+      </c>
       <c r="C59" s="33"/>
       <c r="D59" s="3" t="s">
         <v>139</v>
@@ -3711,7 +3777,9 @@
       <c r="I59" s="21"/>
       <c r="J59" s="20"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M59" s="11"/>
       <c r="N59" s="6"/>
       <c r="O59" s="11"/>
@@ -4518,7 +4586,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T70 P8:P70 R8:R70 L8:L70 N8:N70">
       <formula1>Result</formula1>
     </dataValidation>
